--- a/course_record.xlsx
+++ b/course_record.xlsx
@@ -235,12 +235,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -255,8 +261,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -537,249 +548,252 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="8" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="E7EE" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
